--- a/2° semestre/Levantamento de Requisitos/07-08/requisitos de um sistema de hotel.xlsx
+++ b/2° semestre/Levantamento de Requisitos/07-08/requisitos de um sistema de hotel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1DEA09-0942-4565-8EBF-D2549DD2930D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C10F1A6-04DC-4BA2-9B94-AADE22EFEE38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{94BD88AE-C90F-4C58-8FEF-8F27990C2FBB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="43">
   <si>
     <t>Requisitos não funcionais</t>
   </si>
@@ -148,13 +148,19 @@
   </si>
   <si>
     <t>O sistema deve guardar os backups anteriores, por um período de até um ano.</t>
+  </si>
+  <si>
+    <t>Problema por má definição de requisito</t>
+  </si>
+  <si>
+    <t>Descrição: Uma má descrição do período que os backups devem ser guardados, caso esse requisito seja mal interpretado os backups podem ser deletados assim que um novo backup ser feito. Isso pode resultar numa perda total dos dados caso o backup atual tenha um erro e o backup anterior seja deletado.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +168,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +195,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,9 +214,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -210,14 +238,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,6 +250,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF57575"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -533,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F724F2-5F1F-4D29-BB37-BC872B995F7C}">
-  <dimension ref="A1:BG16"/>
+  <dimension ref="A1:BG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BN17" sqref="BN17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,276 +583,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="Y1" s="2" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="Y1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AK1" s="2" t="s">
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AK1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AW1" s="2" t="s">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AW1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="Y2" s="3" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="Y2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AK2" s="3" t="s">
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AK2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AW2" s="3" t="s">
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AW2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="Y4" s="4" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="Y4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AK4" s="4" t="s">
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AK4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AW4" s="4" t="s">
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AW4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -835,15 +865,15 @@
       <c r="M5" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
       <c r="U5" t="s">
         <v>3</v>
       </c>
@@ -856,15 +886,15 @@
       <c r="Y5" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
       <c r="AG5" t="s">
         <v>3</v>
       </c>
@@ -877,15 +907,15 @@
       <c r="AK5" t="s">
         <v>1</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AL5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
       <c r="AS5" t="s">
         <v>3</v>
       </c>
@@ -898,15 +928,15 @@
       <c r="AW5" t="s">
         <v>1</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AX5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
       <c r="BE5" t="s">
         <v>3</v>
       </c>
@@ -918,457 +948,564 @@
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="7" t="s">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="7" t="s">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AI6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AK6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AL6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="7" t="s">
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AT6" s="8" t="s">
+      <c r="AT6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AU6" s="8" t="s">
+      <c r="AU6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AW6" s="6" t="s">
+      <c r="AW6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AX6" s="6" t="s">
+      <c r="AX6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="6"/>
-      <c r="BE6" s="7" t="s">
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BF6" s="8" t="s">
+      <c r="BF6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BG6" s="8" t="s">
+      <c r="BG6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="7" t="s">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W9" s="8" t="s">
+      <c r="W9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="Z9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="7" t="s">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AH9" s="8" t="s">
+      <c r="AH9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AI9" s="8" t="s">
+      <c r="AI9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK9" s="6" t="s">
+      <c r="AK9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="7" t="s">
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AT9" s="8" t="s">
+      <c r="AT9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AU9" s="8" t="s">
+      <c r="AU9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AW9" s="6" t="s">
+      <c r="AW9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AX9" s="6" t="s">
+      <c r="AX9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="6"/>
-      <c r="BE9" s="7" t="s">
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BF9" s="8" t="s">
+      <c r="BF9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BG9" s="8" t="s">
+      <c r="BG9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AW11" s="6"/>
-      <c r="AX11" s="6"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="6"/>
-      <c r="BB11" s="6"/>
-      <c r="BC11" s="6"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:59" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="M16" s="1"/>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="AW9:AW11"/>
-    <mergeCell ref="AX9:BD11"/>
-    <mergeCell ref="BE9:BE11"/>
-    <mergeCell ref="BF9:BF11"/>
-    <mergeCell ref="BG9:BG11"/>
+  <mergeCells count="72">
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K17"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="M2:W3"/>
+    <mergeCell ref="M4:W4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:T8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="Y1:AI1"/>
+    <mergeCell ref="Y2:AI3"/>
+    <mergeCell ref="Y4:AI4"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:AF8"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="Z9:AF11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="AI9:AI11"/>
+    <mergeCell ref="AK1:AU1"/>
+    <mergeCell ref="AK2:AU3"/>
+    <mergeCell ref="AK4:AU4"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AK6:AK8"/>
+    <mergeCell ref="AL6:AR8"/>
+    <mergeCell ref="AS6:AS8"/>
+    <mergeCell ref="AT6:AT8"/>
+    <mergeCell ref="AU6:AU8"/>
+    <mergeCell ref="AK9:AK11"/>
+    <mergeCell ref="AL9:AR11"/>
+    <mergeCell ref="AS9:AS11"/>
+    <mergeCell ref="AT9:AT11"/>
+    <mergeCell ref="AU9:AU11"/>
     <mergeCell ref="AW1:BG1"/>
     <mergeCell ref="AW2:BG3"/>
     <mergeCell ref="AW4:BG4"/>
@@ -1378,62 +1515,11 @@
     <mergeCell ref="BE6:BE8"/>
     <mergeCell ref="BF6:BF8"/>
     <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="AK9:AK11"/>
-    <mergeCell ref="AL9:AR11"/>
-    <mergeCell ref="AS9:AS11"/>
-    <mergeCell ref="AT9:AT11"/>
-    <mergeCell ref="AU9:AU11"/>
-    <mergeCell ref="AK1:AU1"/>
-    <mergeCell ref="AK2:AU3"/>
-    <mergeCell ref="AK4:AU4"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="AK6:AK8"/>
-    <mergeCell ref="AL6:AR8"/>
-    <mergeCell ref="AS6:AS8"/>
-    <mergeCell ref="AT6:AT8"/>
-    <mergeCell ref="AU6:AU8"/>
-    <mergeCell ref="Y9:Y11"/>
-    <mergeCell ref="Z9:AF11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="AI9:AI11"/>
-    <mergeCell ref="Y1:AI1"/>
-    <mergeCell ref="Y2:AI3"/>
-    <mergeCell ref="Y4:AI4"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:AF8"/>
-    <mergeCell ref="AG6:AG8"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="M2:W3"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:T8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="AW9:AW11"/>
+    <mergeCell ref="AX9:BD11"/>
+    <mergeCell ref="BE9:BE11"/>
+    <mergeCell ref="BF9:BF11"/>
+    <mergeCell ref="BG9:BG11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
